--- a/biology/Zoologie/Amyciaea/Amyciaea.xlsx
+++ b/biology/Zoologie/Amyciaea/Amyciaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amyciaea est un genre d'araignées aranéomorphes de la famille des Thomisidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amyciaea est un genre d'araignées aranéomorphes de la famille des Thomisidae.
 On les appelle communément "araignées-crabes myrmécophages" car les pattes latérigrades des thomies leur donnent une marche de crabe ; et elles se nourrissent de fourmis en les mordant  dans la région céphalique (ce qui les paralyse immédiatement).
 Les Amyciaea miment les fourmis tisserandes Oecophylla smaragdina : une taille similaire (environ 5mm), une coloration identique, une macule noire sur l'abdomen de l'araignée qui imite l’œil de l'insecte...
 </t>
@@ -513,9 +525,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie de l'Est, en Asie du Sud, en Afrique de l'Ouest et en Océanie[1] dans les régions tropicales.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie du Sud-Est, en Asie de l'Est, en Asie du Sud, en Afrique de l'Ouest et en Océanie dans les régions tropicales.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 30/01/2024)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 30/01/2024) :
 Amyciaea albomaculata (O. Pickard-Cambridge, 1874)
 Amyciaea forticeps (O. Pickard-Cambridge, 1873)
 Amyciaea hesperia Simon, 1895
@@ -579,9 +595,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amycle[2] Pickard-Cambridge, 1873, préoccupé par Amycle  Stål, 1861, a été remplacé par Amyciaea par Simon en 1886[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amycle Pickard-Cambridge, 1873, préoccupé par Amycle  Stål, 1861, a été remplacé par Amyciaea par Simon en 1886.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1886 : « Matériaux pour servir à la faune arachnologiques de l'Asie méridionale. III. Arachnides recueillis en 1884 dans la presqu'île de Malacca, par M. J. Morgan. IV. Arachnides recueillis à Collegal, district de Coimbatoore, par M. A. Theobald G. R. » Bulletin de la Société zoologique de France, vol. 10, p. 436-462 (texte intégral).
 O. Pickard-Cambridge, 1873 : « On some new genera and species of Araneida. » Proceedings of the Zoological Society of London, vol. 1873, p. 112-129 (texte intégral).</t>
